--- a/ResultadoEleicoesDistritos/BRAGA_PÓVOA DE LANHOSO.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGA_PÓVOA DE LANHOSO.xlsx
@@ -597,64 +597,64 @@
         <v>6562</v>
       </c>
       <c r="H2" t="n">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="I2" t="n">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="J2" t="n">
-        <v>2728</v>
+        <v>2676</v>
       </c>
       <c r="K2" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>706</v>
+        <v>742</v>
       </c>
       <c r="M2" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N2" t="n">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>26</v>
+      </c>
+      <c r="S2" t="n">
+        <v>301</v>
+      </c>
+      <c r="T2" t="n">
+        <v>517</v>
+      </c>
+      <c r="U2" t="n">
+        <v>36</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4214</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>30</v>
-      </c>
-      <c r="S2" t="n">
-        <v>317</v>
-      </c>
-      <c r="T2" t="n">
-        <v>462</v>
-      </c>
-      <c r="U2" t="n">
-        <v>28</v>
-      </c>
-      <c r="V2" t="n">
-        <v>4241</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3</v>
-      </c>
       <c r="X2" t="n">
-        <v>4270</v>
+        <v>4219</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
